--- a/StructureDefinition-ext-R5-Location.virtualService.xlsx
+++ b/StructureDefinition-ext-R5-Location.virtualService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Location.virtualService` 0..* `VirtualServiceDetail`
 Following are the generation technical comments:
-Element `Location.virtualService` is mapped to FHIR R4 structure `Location`, but has no target element specified.</t>
+Element `Location.virtualService` is will have a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Location</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-ext-R5-Location.virtualService.xlsx
+++ b/StructureDefinition-ext-R5-Location.virtualService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Location.virtualService` 0..* `VirtualServiceDetail`
 Following are the generation technical comments:
-Element `Location.virtualService` is will have a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
+Element `Location.virtualService` has a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-Location.virtualService.xlsx
+++ b/StructureDefinition-ext-R5-Location.virtualService.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="259">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -553,15 +553,6 @@
 </t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contactentity-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:address.extension:name</t>
   </si>
   <si>
@@ -685,7 +676,7 @@
     <t>Extension.extension:address.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -1184,8 +1175,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.28125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3993,13 +3984,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4037,13 +4028,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4068,16 +4059,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4146,7 +4137,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>151</v>
@@ -4249,7 +4240,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>153</v>
@@ -4354,7 +4345,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>155</v>
@@ -4397,7 +4388,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4459,7 +4450,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>157</v>
@@ -4485,16 +4476,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4564,13 +4555,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4595,14 +4586,14 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4671,7 +4662,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>151</v>
@@ -4774,7 +4765,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>153</v>
@@ -4879,7 +4870,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>155</v>
@@ -4922,7 +4913,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4984,7 +4975,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>157</v>
@@ -5010,13 +5001,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5087,7 +5078,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
@@ -5118,16 +5109,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5196,7 +5187,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>151</v>
@@ -5299,7 +5290,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>153</v>
@@ -5404,7 +5395,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>155</v>
@@ -5509,7 +5500,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>157</v>
@@ -5535,16 +5526,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5614,13 +5605,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5645,14 +5636,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5721,7 +5712,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>151</v>
@@ -5824,7 +5815,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>153</v>
@@ -5929,7 +5920,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>155</v>
@@ -5972,7 +5963,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6034,7 +6025,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>157</v>
@@ -6060,13 +6051,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6137,13 +6128,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6168,16 +6159,16 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6246,7 +6237,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>151</v>
@@ -6349,7 +6340,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>153</v>
@@ -6454,7 +6445,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>155</v>
@@ -6497,7 +6488,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6559,7 +6550,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>157</v>
@@ -6585,16 +6576,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -6664,7 +6655,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6769,7 +6760,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -6795,7 +6786,7 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>142</v>
@@ -6872,13 +6863,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6903,16 +6894,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6981,7 +6972,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7084,7 +7075,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7189,7 +7180,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7232,7 +7223,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7294,7 +7285,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7320,16 +7311,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7399,13 +7390,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7430,16 +7421,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7508,7 +7499,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7611,7 +7602,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7716,7 +7707,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7759,7 +7750,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7821,7 +7812,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -7847,16 +7838,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -7926,13 +7917,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -7957,16 +7948,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8035,7 +8026,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8138,7 +8129,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -8243,7 +8234,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8286,7 +8277,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8348,7 +8339,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8377,13 +8368,13 @@
         <v>88</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8584,7 +8575,7 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>123</v>

--- a/StructureDefinition-ext-R5-Location.virtualService.xlsx
+++ b/StructureDefinition-ext-R5-Location.virtualService.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="264">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -459,6 +459,15 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-virtual-service-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:address</t>
   </si>
   <si>
@@ -553,6 +562,12 @@
 </t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:address.extension:name</t>
   </si>
   <si>
@@ -676,7 +691,7 @@
     <t>Extension.extension:address.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1175,8 +1190,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.24609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2621,13 +2636,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2665,13 +2680,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2696,14 +2711,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2772,7 +2787,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2875,7 +2890,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2978,7 +2993,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
@@ -3009,10 +3024,10 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3083,10 +3098,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3186,10 +3201,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3291,10 +3306,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3396,10 +3411,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3431,7 +3446,7 @@
         <v>124</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3439,7 +3454,7 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>77</v>
@@ -3501,13 +3516,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3532,16 +3547,16 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3610,10 +3625,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3713,10 +3728,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3818,10 +3833,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3861,7 +3876,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3923,10 +3938,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3949,16 +3964,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3984,13 +3999,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4028,13 +4043,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4059,16 +4074,16 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4137,10 +4152,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4240,10 +4255,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4345,10 +4360,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4388,7 +4403,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4450,10 +4465,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4476,16 +4491,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4555,13 +4570,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4586,14 +4601,14 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4662,10 +4677,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4765,10 +4780,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4870,10 +4885,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4913,7 +4928,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4975,10 +4990,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5001,13 +5016,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5078,13 +5093,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5109,16 +5124,16 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5187,10 +5202,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5290,10 +5305,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5395,10 +5410,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5438,7 +5453,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5500,10 +5515,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5526,16 +5541,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5605,13 +5620,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5636,14 +5651,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5712,10 +5727,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5815,10 +5830,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5920,10 +5935,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5963,7 +5978,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6025,10 +6040,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6051,13 +6066,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6128,13 +6143,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6159,16 +6174,16 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6237,10 +6252,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6340,10 +6355,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6445,10 +6460,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6488,7 +6503,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6550,10 +6565,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6576,16 +6591,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -6655,7 +6670,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6698,7 +6713,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6760,7 +6775,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -6786,13 +6801,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6863,13 +6878,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6894,16 +6909,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6972,7 +6987,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7075,7 +7090,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7180,7 +7195,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7223,7 +7238,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7285,7 +7300,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7311,16 +7326,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7390,13 +7405,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7421,16 +7436,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7499,7 +7514,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7602,7 +7617,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7707,7 +7722,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>113</v>
@@ -7750,7 +7765,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -7812,7 +7827,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>122</v>
@@ -7838,16 +7853,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -7917,13 +7932,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -7948,16 +7963,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8026,7 +8041,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>105</v>
@@ -8129,7 +8144,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>107</v>
@@ -8234,7 +8249,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8277,7 +8292,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8339,7 +8354,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8368,13 +8383,13 @@
         <v>88</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8575,7 +8590,7 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>123</v>
